--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E584AB38-2388-4ADC-B39F-F65E00DEA209}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A277BF1-54F1-44FF-A9C9-B83824F49DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>חותמת זמן</t>
+  </si>
+  <si>
+    <t>איזה זוג ניצח מביניכם?</t>
+  </si>
+  <si>
+    <t>המנצחים (יובל סמו, ואלכס גרין)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -37,15 +44,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -57,7 +58,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,16 +66,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -293,38 +314,1050 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="A1:E3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="18.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="11" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45270.49900462963</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A277BF1-54F1-44FF-A9C9-B83824F49DA4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB20CA0-2513-456E-8512-96F38C92B8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>המנצחים (יובל סמו, ואלכס גרין)</t>
+    <t>המנצחים (יובל סמו, אלכס גרין)</t>
   </si>
 </sst>
 </file>
@@ -318,7 +318,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -342,7 +342,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45270.49900462963</v>
       </c>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20405"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB20CA0-2513-456E-8512-96F38C92B8E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CD89A6-0F4B-4F43-9E2A-7B47DBF9A655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>חותמת זמן</t>
   </si>
@@ -28,7 +28,16 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>המנצחים (יובל סמו, אלכס גרין)</t>
+    <t>הקבוצה של: אור, המפקד, רון</t>
+  </si>
+  <si>
+    <t>הקבוצה של: איי, עמרי</t>
+  </si>
+  <si>
+    <t>הקבוצה של: דור, הקשבי</t>
+  </si>
+  <si>
+    <t>הקבוצה של: לא נתמך עי גוגל, טון</t>
   </si>
 </sst>
 </file>
@@ -314,11 +323,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -343,12 +352,8 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45270.49900462963</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -357,8 +362,12 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2">
+        <v>45284.786620370367</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -367,8 +376,12 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2">
+        <v>45284.786817129629</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -377,8 +390,12 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2">
+        <v>45284.786909722221</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -387,8 +404,12 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2">
+        <v>45284.78701388889</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1356,6 +1377,46 @@
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+    </row>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CD89A6-0F4B-4F43-9E2A-7B47DBF9A655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B68659-3946-4467-A060-28AA914EC3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>הקבוצה של: אור, המפקד, רון</t>
+    <t>הקבוצה של: טון, לא נתמך עי גוגל, המפקד</t>
   </si>
   <si>
-    <t>הקבוצה של: איי, עמרי</t>
+    <t>הקבוצה של: דור, אלכס</t>
   </si>
   <si>
-    <t>הקבוצה של: דור, הקשבי</t>
+    <t>הקבוצה של: איי, הקשבי</t>
   </si>
   <si>
-    <t>הקבוצה של: לא נתמך עי גוגל, טון</t>
+    <t>הקבוצה של: אריה, עמרי</t>
   </si>
 </sst>
 </file>
@@ -323,11 +323,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -362,12 +362,8 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45284.786620370367</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -376,12 +372,8 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45284.786817129629</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -390,12 +382,8 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45284.786909722221</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -404,12 +392,8 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>45284.78701388889</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -418,8 +402,12 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2">
+        <v>45285.016736111109</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -428,8 +416,12 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2">
+        <v>45285.016840277778</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -438,8 +430,12 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2">
+        <v>45285.016932870371</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -448,8 +444,12 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2">
+        <v>45285.017025462963</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1417,6 +1417,46 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B68659-3946-4467-A060-28AA914EC3D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7CEED5-CFDC-4373-B974-A45DAC616F95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>הקבוצה של: טון, לא נתמך עי גוגל, המפקד</t>
+    <t>הקבוצה של: אור, שרי</t>
   </si>
   <si>
-    <t>הקבוצה של: דור, אלכס</t>
+    <t>הקבוצה של: המפקד, הקשבי</t>
   </si>
   <si>
-    <t>הקבוצה של: איי, הקשבי</t>
+    <t>הקבוצה של: איי, עמרי</t>
   </si>
   <si>
-    <t>הקבוצה של: אריה, עמרי</t>
+    <t>הקבוצה של: דור, גור</t>
   </si>
 </sst>
 </file>
@@ -323,11 +323,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -402,12 +402,8 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>45285.016736111109</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -416,12 +412,8 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45285.016840277778</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -430,12 +422,8 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45285.016932870371</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -444,12 +432,8 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45285.017025462963</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -458,8 +442,12 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2">
+        <v>45285.022210648145</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -468,8 +456,12 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="2">
+        <v>45285.022337962961</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -478,8 +470,12 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="2">
+        <v>45285.022418981483</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -488,8 +484,12 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2">
+        <v>45285.022499999999</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1457,6 +1457,46 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7CEED5-CFDC-4373-B974-A45DAC616F95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B54E04-0999-49CC-98C5-79855ACD694F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>הקבוצה של: אור, שרי</t>
+    <t>הקבוצה של: נועם, הקשבי, המפקד</t>
   </si>
   <si>
-    <t>הקבוצה של: המפקד, הקשבי</t>
+    <t>הקבוצה של: טון, אריה</t>
   </si>
   <si>
-    <t>הקבוצה של: איי, עמרי</t>
+    <t>הקבוצה של: אלכס, היייי</t>
   </si>
   <si>
-    <t>הקבוצה של: דור, גור</t>
+    <t>הקבוצה של: אור, שרי</t>
   </si>
 </sst>
 </file>
@@ -327,7 +327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -351,9 +351,11 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -362,8 +364,10 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -372,8 +376,10 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -382,8 +388,10 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -442,12 +450,8 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45285.022210648145</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -456,12 +460,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45285.022337962961</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -470,12 +470,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45285.022418981483</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -484,12 +480,8 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45285.022499999999</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>5</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B54E04-0999-49CC-98C5-79855ACD694F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DC17C-2805-4D5A-9D7D-CD7C8EB0B1E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,16 +28,16 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>הקבוצה של: נועם, הקשבי, המפקד</t>
+    <t>הקבוצה של: שחקן יז, שחקן ז</t>
   </si>
   <si>
-    <t>הקבוצה של: טון, אריה</t>
+    <t>הקבוצה של: שחקן ג, שחקן ה</t>
   </si>
   <si>
-    <t>הקבוצה של: אלכס, היייי</t>
+    <t>הקבוצה של: שחקן ו, שחקן טו</t>
   </si>
   <si>
-    <t>הקבוצה של: אור, שרי</t>
+    <t>הקבוצה של: שחקן יט, שחקן יד</t>
   </si>
 </sst>
 </file>
@@ -327,7 +327,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -351,7 +351,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>2</v>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4DC17C-2805-4D5A-9D7D-CD7C8EB0B1E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A9D02-52DD-4AD0-A214-6121D88C2EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>חותמת זמן</t>
   </si>
@@ -28,16 +28,79 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t>הקבוצה של: שחקן יז, שחקן ז</t>
-  </si>
-  <si>
-    <t>הקבוצה של: שחקן ג, שחקן ה</t>
-  </si>
-  <si>
-    <t>הקבוצה של: שחקן ו, שחקן טו</t>
-  </si>
-  <si>
-    <t>הקבוצה של: שחקן יט, שחקן יד</t>
+    <t xml:space="preserve">    הקבוצה של: שחקן נא, שחקן כ, שחקן מו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן ח, שחקן יב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן יח, שחקן לד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן מ, שחקן נב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן ה, שחקן לו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן לב, שחקן טו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן מה, שחקן כא</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן כו, שחקן יג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן מא, שחקן א</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן ב, שחקן מג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן כד, שחקן לג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן כח, שחקן י</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: Sahkan, שחקן ו</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן טז, שחקן כה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן לה, שחקן מט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן לא, שחקן מב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן מח, שחקן מד</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן ל, שחקן כט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן מז, שחקן יט</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן כג, שחקן כז</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן יא, שחקן נ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן לט, שחקן כב</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן לח, שחקן ז</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן יד, שחקן יז</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    הקבוצה של: שחקן ט, שחקן לז</t>
   </si>
 </sst>
 </file>
@@ -327,7 +390,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -353,9 +416,7 @@
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -366,7 +427,7 @@
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -378,7 +439,7 @@
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -390,7 +451,7 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -401,7 +462,9 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -411,7 +474,9 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -421,7 +486,9 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -431,7 +498,9 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -441,7 +510,9 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -451,7 +522,9 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -461,7 +534,9 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -471,7 +546,9 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -481,7 +558,9 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -491,7 +570,9 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -501,7 +582,9 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -511,7 +594,9 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -521,7 +606,9 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -531,7 +618,9 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -541,7 +630,9 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -551,7 +642,9 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -561,7 +654,9 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -571,7 +666,9 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -581,7 +678,9 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -591,7 +690,9 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -601,7 +702,9 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -611,7 +714,9 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>

--- a/Server/winners.xlsx
+++ b/Server/winners.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TLP-001\PycharmProjects\ShabatMadat\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A9D02-52DD-4AD0-A214-6121D88C2EC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37242D5B-8019-4B4C-BEAA-5DF4E719000A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>חותמת זמן</t>
   </si>
@@ -28,79 +28,37 @@
     <t>איזה זוג ניצח מביניכם?</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן נא, שחקן כ, שחקן מו</t>
+    <t>הקבוצה של: אברג'ל, דוידזון, מודן</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן ח, שחקן יב</t>
+    <t>הקבוצה של: גל ארצי, בן שושן</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן יח, שחקן לד</t>
+    <t>הקבוצה של: אריאל בן אליעזר, ליאורה</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן מ, שחקן נב</t>
+    <t>הקבוצה של: תמיר, הרצברג</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן ה, שחקן לו</t>
+    <t>הקבוצה של: גל נימצקי, עמרי נצן</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן לב, שחקן טו</t>
+    <t>הקבוצה של: עמית לוי, שקד</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן מה, שחקן כא</t>
+    <t>הקבוצה של: פייביש, דור פרידמן</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן כו, שחקן יג</t>
+    <t>הקבוצה של: יואב סטרולוביץ', עמית בר</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן מא, שחקן א</t>
+    <t>הקבוצה של: ירין, מנחה</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן ב, שחקן מג</t>
+    <t>הקבוצה של: עמרי קונסטנטינו, איילה</t>
   </si>
   <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן כד, שחקן לג</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן כח, שחקן י</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: Sahkan, שחקן ו</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן טז, שחקן כה</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן לה, שחקן מט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן לא, שחקן מב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן מח, שחקן מד</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן ל, שחקן כט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן מז, שחקן יט</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן כג, שחקן כז</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן יא, שחקן נ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן לט, שחקן כב</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן לח, שחקן ז</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן יד, שחקן יז</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    הקבוצה של: שחקן ט, שחקן לז</t>
+    <t>הקבוצה של: אריאל ליבזון, הוד</t>
   </si>
 </sst>
 </file>
@@ -389,8 +347,8 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -416,7 +374,9 @@
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -427,7 +387,7 @@
     <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -439,7 +399,7 @@
     <row r="4" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -451,7 +411,7 @@
     <row r="5" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -463,7 +423,7 @@
     <row r="6" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -475,7 +435,7 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -487,7 +447,7 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -499,7 +459,7 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -511,7 +471,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -523,7 +483,7 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -535,7 +495,7 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -547,7 +507,7 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -558,8 +518,8 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>13</v>
+      <c r="B14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -570,8 +530,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -582,8 +542,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -594,8 +554,8 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>16</v>
+      <c r="B17" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -606,9 +566,7 @@
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -618,9 +576,7 @@
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -630,9 +586,7 @@
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -642,9 +596,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -654,9 +606,7 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -666,9 +616,7 @@
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -678,9 +626,7 @@
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -690,9 +636,7 @@
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -702,9 +646,7 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -714,9 +656,7 @@
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
